--- a/final_report/Trace_Report_SBHP.xlsx
+++ b/final_report/Trace_Report_SBHP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{568FCBED-0E32-4619-8C97-92DF2A7988A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A796AF-8278-4426-81A8-D826D3E6F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$N$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Initial</t>
   </si>
@@ -68,34 +68,52 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>CGAX</t>
+  </si>
+  <si>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>BNGX</t>
   </si>
   <si>
-    <t>LA JUNTA</t>
-  </si>
-  <si>
-    <t>CO</t>
+    <t>KANSAS CITY</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
   <si>
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>HKCKDE</t>
+    <t>HLINKC</t>
   </si>
   <si>
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>LA SALLE</t>
-  </si>
-  <si>
-    <t>LDI601</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>SHORTLINE YARD</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>LTJ40N</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -107,19 +125,22 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 05:58:12 EDT, by WPJTOWN1.The search returned: 2 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:55:31 EDT, by WPJTOWN1.The search returned: 3 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>BNGX30307</t>
-  </si>
-  <si>
-    <t>UP74772</t>
-  </si>
-  <si>
-    <t>2 CO</t>
+    <t>CGAX10167</t>
+  </si>
+  <si>
+    <t>BNGX30727</t>
+  </si>
+  <si>
+    <t>CGEX1941</t>
+  </si>
+  <si>
+    <t>1 CO</t>
   </si>
 </sst>
 </file>
@@ -262,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FA459"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,10 +636,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,22 +996,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -995,12 +1023,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1038,16 +1066,16 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1055,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>30307</v>
+        <v>10167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1064,13 +1092,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2">
-        <v>1442</v>
+        <v>1217</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -1085,73 +1113,118 @@
         <v>12</v>
       </c>
       <c r="L4" s="2">
-        <v>280000</v>
+        <v>273000</v>
       </c>
       <c r="M4" s="2">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="N4" s="2">
-        <v>216100</v>
+        <v>208800</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1941</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1913</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3">
+        <v>198750</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>198750</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
-        <v>74772</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6">
+        <v>30727</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>853</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1458</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="2">
-        <v>185800</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>185800</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
+      <c r="L6">
+        <v>282200</v>
+      </c>
+      <c r="M6">
+        <v>64400</v>
+      </c>
+      <c r="N6">
+        <v>217800</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N5">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N5">
-      <sortCondition ref="D4:D5" customList="CO"/>
-      <sortCondition ref="H4:H5" customList="Placed Actual,Placed Construct"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O6">
+    <sortCondition ref="D4:D6" customList="CO"/>
+    <sortCondition ref="H4:H6" customList="Placed Actual,Placed Construct"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_report/Trace_Report_SBHP.xlsx
+++ b/final_report/Trace_Report_SBHP.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A796AF-8278-4426-81A8-D826D3E6F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F7BCCD-8256-49DA-85CD-A16450D6E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Initial</t>
   </si>
@@ -68,52 +68,52 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>BNGX</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Arrive In-Transit</t>
+  </si>
+  <si>
+    <t>HKCKDE</t>
+  </si>
+  <si>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>CAIX</t>
+  </si>
+  <si>
+    <t>HUTCHINSON</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>LA SALLE</t>
+  </si>
+  <si>
+    <t>LDI602</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>CGAX</t>
   </si>
   <si>
-    <t>GREELEY</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Junction Delivery</t>
-  </si>
-  <si>
-    <t>GWR</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>BNGX</t>
-  </si>
-  <si>
-    <t>KANSAS CITY</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>HLINKC</t>
-  </si>
-  <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>CGEX</t>
-  </si>
-  <si>
-    <t>SHORTLINE YARD</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>LTJ40N</t>
+    <t>WINDSOR</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -125,22 +125,25 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/15/2023 05:55:31 EDT, by WPJTOWN1.The search returned: 3 events.</t>
+    <t>Description unknown, completed 06/21/2023 08:46:33 EDT, by WPJTOWN1.The search returned: 4 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>BNGX30727</t>
+  </si>
+  <si>
+    <t>CAIX541012</t>
+  </si>
+  <si>
+    <t>CGEX1941</t>
+  </si>
+  <si>
     <t>CGAX10167</t>
   </si>
   <si>
-    <t>BNGX30727</t>
-  </si>
-  <si>
-    <t>CGEX1941</t>
-  </si>
-  <si>
-    <t>1 CO</t>
+    <t>3 CO</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,12 +469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FA459"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,11 +633,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -996,29 +992,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1028,7 +1024,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>10167</v>
+        <v>30727</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1095,10 +1091,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
-        <v>1217</v>
+        <v>1259</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -1113,59 +1109,59 @@
         <v>12</v>
       </c>
       <c r="L4" s="2">
-        <v>273000</v>
+        <v>282200</v>
       </c>
       <c r="M4" s="2">
-        <v>64200</v>
+        <v>64400</v>
       </c>
       <c r="N4" s="2">
-        <v>208800</v>
+        <v>217800</v>
       </c>
       <c r="O4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1941</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1855</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3">
-        <v>1941</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1913</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>198750</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>198750</v>
       </c>
       <c r="O5" t="s">
@@ -1173,56 +1169,101 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>30727</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G6" s="2">
+        <v>1524</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>273000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>64200</v>
+      </c>
+      <c r="N6" s="2">
+        <v>208800</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>541012</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>357</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="G6">
-        <v>853</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L6">
-        <v>282200</v>
-      </c>
-      <c r="M6">
-        <v>64400</v>
-      </c>
-      <c r="N6">
-        <v>217800</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="L7">
+        <v>273100</v>
+      </c>
+      <c r="M7">
+        <v>62900</v>
+      </c>
+      <c r="N7">
+        <v>210200</v>
+      </c>
+      <c r="O7" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O6">
-    <sortCondition ref="D4:D6" customList="CO"/>
-    <sortCondition ref="H4:H6" customList="Placed Actual,Placed Construct"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O7">
+    <sortCondition ref="D4:D7" customList="CO"/>
+    <sortCondition ref="H4:H7" customList="Placed Actual,Placed Construct"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/final_report/Trace_Report_SBHP.xlsx
+++ b/final_report/Trace_Report_SBHP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F7BCCD-8256-49DA-85CD-A16450D6E438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFAD255-CC64-4FD6-9DA8-3811019C23FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="3885" yWindow="2835" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -86,30 +86,30 @@
     <t>LOVELAND</t>
   </si>
   <si>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>CAIX</t>
   </si>
   <si>
-    <t>HUTCHINSON</t>
-  </si>
-  <si>
-    <t>KS</t>
+    <t>LA JUNTA</t>
   </si>
   <si>
     <t>Departure</t>
   </si>
   <si>
-    <t>CGEX</t>
-  </si>
-  <si>
-    <t>LA SALLE</t>
-  </si>
-  <si>
-    <t>LDI602</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
     <t>CGAX</t>
   </si>
   <si>
@@ -125,7 +125,7 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/21/2023 08:46:33 EDT, by WPJTOWN1.The search returned: 4 events.</t>
+    <t>Description unknown, completed 06/22/2023 11:08:20 EDT, by WPJTOWN1.The search returned: 4 events.</t>
   </si>
   <si>
     <t>Car_no</t>
@@ -134,16 +134,16 @@
     <t>BNGX30727</t>
   </si>
   <si>
+    <t>CGEX1941</t>
+  </si>
+  <si>
     <t>CAIX541012</t>
   </si>
   <si>
-    <t>CGEX1941</t>
-  </si>
-  <si>
     <t>CGAX10167</t>
   </si>
   <si>
-    <t>3 CO</t>
+    <t>4 CO</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
-        <v>1941</v>
+        <v>10167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -1138,45 +1138,43 @@
         <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2">
-        <v>1855</v>
+        <v>1524</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="2">
-        <v>198750</v>
+        <v>273000</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>64200</v>
       </c>
       <c r="N5" s="2">
-        <v>198750</v>
+        <v>208800</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>10167</v>
+        <v>541012</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1185,76 +1183,78 @@
         <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
-        <v>1524</v>
+        <v>719</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="2">
-        <v>273000</v>
+        <v>273100</v>
       </c>
       <c r="M6" s="2">
-        <v>64200</v>
+        <v>62900</v>
       </c>
       <c r="N6" s="2">
-        <v>208800</v>
+        <v>210200</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>541012</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2">
+        <v>1941</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1419</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>357</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L7">
-        <v>273100</v>
-      </c>
-      <c r="M7">
-        <v>62900</v>
-      </c>
-      <c r="N7">
-        <v>210200</v>
+      <c r="L7" s="2">
+        <v>198750</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>198750</v>
       </c>
       <c r="O7" t="s">
         <v>32</v>

--- a/final_report/Trace_Report_SBHP.xlsx
+++ b/final_report/Trace_Report_SBHP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C315F1D6-8B7C-4F5E-A3AC-61ECB0E41B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{133996C0-13F3-4E27-8629-D5A127F7A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="-5985" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$4:$O$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Initial</t>
   </si>
@@ -71,54 +71,15 @@
     <t>CGAX</t>
   </si>
   <si>
-    <t>GREELEY</t>
+    <t>JOHNSTOWN</t>
   </si>
   <si>
     <t>CO</t>
   </si>
   <si>
-    <t>Junction Received</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>BNGX</t>
-  </si>
-  <si>
     <t>Placed Actual</t>
   </si>
   <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>KELIM</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>FURX</t>
-  </si>
-  <si>
-    <t>BNSF</t>
-  </si>
-  <si>
-    <t>CNW</t>
-  </si>
-  <si>
-    <t>MARSHALLTOWN</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>MDMDM0</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -128,28 +89,13 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 10/03/2023 10:47:31 EDT, by WPJTOWN1.The search returned: 5 events.</t>
+    <t>Description unknown, completed 10/24/2023 07:51:28 EDT, by WPJTOWN1.The search returned: 1 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
     <t>CGAX10299</t>
-  </si>
-  <si>
-    <t>BNGX30881</t>
-  </si>
-  <si>
-    <t>UP90122</t>
-  </si>
-  <si>
-    <t>FURX854070</t>
-  </si>
-  <si>
-    <t>CNW174738</t>
-  </si>
-  <si>
-    <t>3 CO</t>
   </si>
   <si>
     <t>1 On Hand</t>
@@ -295,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,18 +424,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9FA459"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,12 +588,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1015,328 +947,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:N9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10299</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1443</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>180100</v>
+      </c>
+      <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30881</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1255</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="4">
-        <v>281900</v>
-      </c>
-      <c r="M5" s="4">
-        <v>64400</v>
-      </c>
-      <c r="N5" s="4">
-        <v>217500</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4">
-        <v>90122</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="N4" s="2">
+        <v>180100</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1919</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="4">
-        <v>215950</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>215950</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10299</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1558</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="4">
-        <v>180100</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>180100</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4">
-        <v>854070</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>951</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="4">
-        <v>274900</v>
-      </c>
-      <c r="M8" s="4">
-        <v>63400</v>
-      </c>
-      <c r="N8" s="4">
-        <v>211500</v>
-      </c>
-      <c r="O8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4">
-        <v>174738</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1052</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="4">
-        <v>179750</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>179750</v>
-      </c>
-      <c r="O9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O9">
-    <sortCondition ref="D5:D9" customList="CO"/>
-    <sortCondition ref="H5:H9" customList="Placed Actual,Placed Construct"/>
+  <autoFilter ref="A3:O4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O4">
+    <sortCondition ref="D4" customList="CO"/>
+    <sortCondition ref="H4" customList="Placed Actual,Placed Construct"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
